--- a/Companies/Distribution/NTPC Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
+++ b/Companies/Distribution/NTPC Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '17</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '17</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '17</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '18</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '18</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '18</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '17</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '17</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '17</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>19,879.32</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>19,698.75</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20,774.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23,100.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>22,703.60</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>23,100.26</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20,774.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>19,698.75</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>19,879.32</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>23100.26</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>19698.75</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>21231.26</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>19,879.32</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19,698.75</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20,774.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23,100.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>22,703.60</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>23,100.26</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20,774.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>19,698.75</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>19,879.32</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>23100.26</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>19698.75</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>21231.26</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>137.57</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>261.26</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>386.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>528.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>680.83</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>528.63</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>386.05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>261.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>137.57</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>680.83</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>137.57</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>398.8680000000001</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>11,940.11</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>11,398.80</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12,406.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12,569.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>13,118.74</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>12,569.67</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12,406.89</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>11,398.80</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>11,940.11</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>13118.74</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>11398.8</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>12286.842</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>1,071.21</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1,000.99</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,294.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,368.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>1,241.89</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1,368.21</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1,294.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1,000.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1,071.21</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1368.21</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>1000.99</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>1195.312</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1,570.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1,712.68</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1,881.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1,934.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>1,860.15</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1,934.81</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1,881.37</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1,712.68</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1,570.00</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1934.81</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>1570</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>1791.802</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,690.33</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,597.46</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,410.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2,723.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,707.31</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2,723.77</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,410.17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,597.46</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,690.33</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>2723.77</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1410.17</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1825.808</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>3,470.10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3,727.56</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3,395.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3,975.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>4,094.68</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3,975.17</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3,395.63</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3,727.56</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3,470.10</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>4094.68</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>3395.63</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>3732.628</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>662.61</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>261.60</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>313.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>517.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>136.38</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>517.57</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>313.47</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>261.60</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>662.61</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>662.61</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>136.38</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>378.326</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>4,132.71</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3,989.16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3,709.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4,492.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>4,231.06</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4,492.74</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3,709.10</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3,989.16</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4,132.71</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>4492.74</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>3709.1</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>4110.954</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>895.60</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>919.47</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,065.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,104.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,219.93</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,104.17</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,065.01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>919.47</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>895.60</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1219.93</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>895.6</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1040.836</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>3,237.11</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3,069.69</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2,644.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3,388.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>3,011.13</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3,388.57</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2,644.09</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3,069.69</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3,237.11</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3388.57</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>2644.09</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>3070.118</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>3,237.11</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3,069.69</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2,644.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3,388.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>3,011.13</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3,388.57</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2,644.09</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3,069.69</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3,237.11</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>3388.57</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2644.09</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3070.118</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>847.21</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>784.17</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>223.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>762.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>583.10</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>762.67</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>223.97</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>784.17</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>847.21</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>847.21</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>223.97</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>640.2239999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2,389.90</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,285.52</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,420.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,625.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2,428.03</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2,625.90</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,420.12</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,285.52</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2,389.90</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>2625.9</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>2285.52</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2429.894</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>228.27</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>153.08</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-59.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>299.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>160.11</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>299.69</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-59.31</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>153.08</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>228.27</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>299.69</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-59.31</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>156.368</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>2,618.17</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,438.60</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2,360.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2,925.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2,588.14</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2,925.59</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2,360.81</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2,438.60</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2,618.17</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>2925.59</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>2360.81</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>2586.262</v>
       </c>
     </row>
     <row r="21">
@@ -1231,15 +1055,6 @@
         <is>
           <t>8,245.46</t>
         </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>8245.459999999999</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>8245.459999999999</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>8245.459999999999</v>
       </c>
     </row>
     <row r="22"/>
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>3.14</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>3.134</v>
       </c>
     </row>
     <row r="25">
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>3.14</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>3.134</v>
       </c>
     </row>
     <row r="26"/>
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>3.14</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>3.062</v>
       </c>
     </row>
     <row r="29">
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>3.14</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>3.062</v>
       </c>
     </row>
     <row r="30"/>
